--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm2-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adm2-Calcrl.xlsx
@@ -546,7 +546,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H2">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.12972666666666</v>
+        <v>52.36202133333333</v>
       </c>
       <c r="N2">
-        <v>153.38918</v>
+        <v>157.086064</v>
       </c>
       <c r="O2">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147022</v>
       </c>
       <c r="P2">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147023</v>
       </c>
       <c r="Q2">
-        <v>9.881058283724444</v>
+        <v>10.11920497876622</v>
       </c>
       <c r="R2">
-        <v>88.92952455352</v>
+        <v>91.07284480889599</v>
       </c>
       <c r="S2">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147022</v>
       </c>
       <c r="T2">
-        <v>0.485667061686854</v>
+        <v>0.5039383032147023</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,7 +608,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H3">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>39.025447</v>
       </c>
       <c r="O3">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="P3">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="Q3">
-        <v>2.513949917167556</v>
+        <v>2.513949917167555</v>
       </c>
       <c r="R3">
         <v>22.625549254508</v>
       </c>
       <c r="S3">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
       <c r="T3">
-        <v>0.1235639578717746</v>
+        <v>0.1251951767241128</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,7 +670,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H4">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.403045333333333</v>
+        <v>10.240131</v>
       </c>
       <c r="N4">
-        <v>25.209136</v>
+        <v>30.720393</v>
       </c>
       <c r="O4">
-        <v>0.07981819192712479</v>
+        <v>0.09855223517796473</v>
       </c>
       <c r="P4">
-        <v>0.0798181919271248</v>
+        <v>0.09855223517796474</v>
       </c>
       <c r="Q4">
-        <v>1.623927724878222</v>
+        <v>1.978953103028</v>
       </c>
       <c r="R4">
-        <v>14.615349523904</v>
+        <v>17.810577927252</v>
       </c>
       <c r="S4">
-        <v>0.07981819192712479</v>
+        <v>0.09855223517796473</v>
       </c>
       <c r="T4">
-        <v>0.0798181919271248</v>
+        <v>0.09855223517796474</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,7 +732,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H5">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.527042000000001</v>
+        <v>1.816419</v>
       </c>
       <c r="N5">
-        <v>16.581126</v>
+        <v>5.449257</v>
       </c>
       <c r="O5">
-        <v>0.05249983567210869</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="P5">
-        <v>0.05249983567210868</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="Q5">
-        <v>1.068126659362667</v>
+        <v>0.351031448372</v>
       </c>
       <c r="R5">
-        <v>9.613139934264002</v>
+        <v>3.159283035348</v>
       </c>
       <c r="S5">
-        <v>0.05249983567210869</v>
+        <v>0.01748143187520975</v>
       </c>
       <c r="T5">
-        <v>0.05249983567210868</v>
+        <v>0.01748143187520975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,7 +794,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H6">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.572368</v>
+        <v>15.88623066666667</v>
       </c>
       <c r="N6">
-        <v>43.717104</v>
+        <v>47.658692</v>
       </c>
       <c r="O6">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722582</v>
       </c>
       <c r="P6">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722583</v>
       </c>
       <c r="Q6">
-        <v>2.816178120384</v>
+        <v>3.070088212076445</v>
       </c>
       <c r="R6">
-        <v>25.345603083456</v>
+        <v>27.630793908688</v>
       </c>
       <c r="S6">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722582</v>
       </c>
       <c r="T6">
-        <v>0.1384188731248098</v>
+        <v>0.1528909679722583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,7 +856,7 @@
         <v>0.1932546666666667</v>
       </c>
       <c r="H7">
-        <v>0.5797640000000001</v>
+        <v>0.5797639999999999</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.63665566666666</v>
+        <v>10.59233466666667</v>
       </c>
       <c r="N7">
-        <v>37.90996699999999</v>
+        <v>31.777004</v>
       </c>
       <c r="O7">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="P7">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="Q7">
-        <v>2.442092678643111</v>
+        <v>2.047018105228445</v>
       </c>
       <c r="R7">
-        <v>21.978834107788</v>
+        <v>18.423162947056</v>
       </c>
       <c r="S7">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
       <c r="T7">
-        <v>0.1200320797173282</v>
+        <v>0.1019418850357522</v>
       </c>
     </row>
   </sheetData>
